--- a/配置表/BoomFish001.xlsx
+++ b/配置表/BoomFish001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F5293-90EE-4162-88DE-84E5473BB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CCC02-7A43-4DD0-8D8B-F2734EF72FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoomFish001" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -175,45 +175,6 @@
   </si>
   <si>
     <t>Fish/fish01/1012501</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012601</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012701</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012801</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012901</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013001</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013101</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013201</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013301</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013401</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013501</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013601</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013701</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013801</t>
   </si>
   <si>
     <t>玩家</t>
@@ -658,39 +619,18 @@
     <t>侧带白齿鲤</t>
   </si>
   <si>
-    <t>帆鳍鱼</t>
-  </si>
-  <si>
-    <t>枯叶鱼</t>
-  </si>
-  <si>
     <t>沙丁鱼</t>
   </si>
   <si>
     <t>哈姆鱼</t>
   </si>
   <si>
-    <t>水滴鱼</t>
-  </si>
-  <si>
-    <t>大肚鲱</t>
-  </si>
-  <si>
     <t>吕宋花鮨</t>
   </si>
   <si>
-    <t>黑尾鮟鱇鱼</t>
-  </si>
-  <si>
-    <t>银色洞鳍鲷</t>
-  </si>
-  <si>
     <t>玻璃鱼</t>
   </si>
   <si>
-    <t>马鲛鱼</t>
-  </si>
-  <si>
     <t>虎鳟</t>
   </si>
   <si>
@@ -700,67 +640,52 @@
     <t>大菱鲆</t>
   </si>
   <si>
-    <t>鲑鳟鱼</t>
-  </si>
-  <si>
-    <t>大西洋鳕</t>
-  </si>
-  <si>
-    <t>管眼鱼</t>
-  </si>
-  <si>
-    <t>虹鳟</t>
-  </si>
-  <si>
-    <t>黑龙江鮰鱼</t>
-  </si>
-  <si>
     <t>斗鱼</t>
   </si>
   <si>
-    <t>黑鬼鱼</t>
-  </si>
-  <si>
-    <t>帕库鱼</t>
-  </si>
-  <si>
     <t>锦鲤</t>
   </si>
   <si>
-    <t>海魔鱼</t>
-  </si>
-  <si>
     <t>粉鲷</t>
   </si>
   <si>
-    <t>雪鲮</t>
-  </si>
-  <si>
-    <t>似鲭水狼牙</t>
-  </si>
-  <si>
-    <t>突吻角鮟鱇</t>
-  </si>
-  <si>
-    <t>哲罗鲑</t>
-  </si>
-  <si>
-    <t>大北鲑</t>
-  </si>
-  <si>
-    <t>白茴鱼</t>
-  </si>
-  <si>
-    <t>赤梢雅罗鱼</t>
-  </si>
-  <si>
     <t>大白鲨幼崽</t>
   </si>
   <si>
-    <t>剑鱼</t>
-  </si>
-  <si>
-    <t>睡鲨</t>
+    <t>米诺鱼</t>
+  </si>
+  <si>
+    <t>金鱼</t>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+  </si>
+  <si>
+    <t>鳑鲏</t>
+  </si>
+  <si>
+    <t>河豚</t>
+  </si>
+  <si>
+    <t>恩古尼</t>
+  </si>
+  <si>
+    <t>桂鱼</t>
+  </si>
+  <si>
+    <t>牛蛙</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>翻车鱼</t>
+  </si>
+  <si>
+    <t>金色龙鱼</t>
+  </si>
+  <si>
+    <t>蓝鳍金枪鱼</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1226,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13180</v>
+        <v>25884</v>
       </c>
       <c r="G3" s="3">
         <v>7</v>
@@ -1257,8 +1182,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>164</v>
+      <c r="C4" t="s">
+        <v>163</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -1267,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12704</v>
+        <v>23979</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -1298,8 +1223,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
+      <c r="C5" t="s">
+        <v>151</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1308,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12228</v>
+        <v>22073</v>
       </c>
       <c r="G5" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1339,8 +1264,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>166</v>
+      <c r="C6" t="s">
+        <v>164</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1349,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11751</v>
+        <v>20168</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1380,8 +1305,8 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
+      <c r="C7" t="s">
+        <v>152</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -1390,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11275</v>
+        <v>9369</v>
       </c>
       <c r="G7" s="3">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1422,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1431,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10798</v>
+        <v>8893</v>
       </c>
       <c r="G8" s="3">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -1463,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -1472,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10322</v>
+        <v>8416</v>
       </c>
       <c r="G9" s="3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1504,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -1513,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9846</v>
+        <v>7940</v>
       </c>
       <c r="G10" s="3">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -1544,8 +1469,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>171</v>
+      <c r="C11" t="s">
+        <v>167</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1554,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9369</v>
+        <v>7464</v>
       </c>
       <c r="G11" s="3">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -1586,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D12">
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>8893</v>
+        <v>13498</v>
       </c>
       <c r="G12" s="3">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1627,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13">
         <v>42</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8416</v>
+        <v>11592</v>
       </c>
       <c r="G13" s="3">
-        <v>134</v>
+        <v>560</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -1668,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>44</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7940</v>
+        <v>9687</v>
       </c>
       <c r="G14" s="3">
-        <v>192</v>
+        <v>760</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -1708,20 +1633,20 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>175</v>
+      <c r="C15" t="s">
+        <v>155</v>
       </c>
       <c r="D15">
         <v>47</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>7464</v>
+        <v>4129</v>
       </c>
       <c r="G15" s="3">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -1749,8 +1674,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>176</v>
+      <c r="C16" t="s">
+        <v>170</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1759,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6987</v>
+        <v>3652</v>
       </c>
       <c r="G16" s="3">
-        <v>384</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -1783,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1011501</v>
       </c>
@@ -1791,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -1800,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6511</v>
+        <v>3176</v>
       </c>
       <c r="G17" s="3">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="H17" t="s">
         <v>40</v>
@@ -1824,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1011601</v>
       </c>
@@ -1832,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>62</v>
@@ -1841,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6034</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="3">
-        <v>576</v>
+        <v>1920</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -1865,27 +1790,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1011701</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
+      <c r="C19" t="s">
+        <v>171</v>
       </c>
       <c r="D19">
         <v>64</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5558</v>
+        <v>3070</v>
       </c>
       <c r="G19" s="3">
-        <v>768</v>
+        <v>2176</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -1906,27 +1831,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1011801</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>180</v>
+      <c r="C20" t="s">
+        <v>159</v>
       </c>
       <c r="D20">
         <v>70</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>2510</v>
       </c>
       <c r="G20" s="3">
-        <v>864</v>
+        <v>2816</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1947,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1011901</v>
       </c>
@@ -1955,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D21">
         <v>75</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4605</v>
+        <v>1950</v>
       </c>
       <c r="G21" s="3">
-        <v>960</v>
+        <v>3328</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
@@ -1988,27 +1913,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1012001</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>182</v>
+      <c r="C22" t="s">
+        <v>172</v>
       </c>
       <c r="D22">
         <v>75</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4129</v>
+        <v>765</v>
       </c>
       <c r="G22" s="3">
-        <v>1056</v>
+        <v>3840</v>
       </c>
       <c r="H22" t="s">
         <v>45</v>
@@ -2029,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1012101</v>
       </c>
@@ -2037,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>77</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3652</v>
+        <v>625</v>
       </c>
       <c r="G23" s="3">
-        <v>1152</v>
+        <v>4608</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
@@ -2070,27 +1995,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1012201</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>184</v>
+      <c r="C24" t="s">
+        <v>173</v>
       </c>
       <c r="D24">
         <v>80</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3176</v>
+        <v>391</v>
       </c>
       <c r="G24" s="3">
-        <v>1440</v>
+        <v>5248</v>
       </c>
       <c r="H24" t="s">
         <v>47</v>
@@ -2111,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1012301</v>
       </c>
@@ -2119,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D25">
         <v>90</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2700</v>
+        <v>269</v>
       </c>
       <c r="G25" s="3">
-        <v>2304</v>
+        <v>8960</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -2152,27 +2077,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1012401</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>185</v>
+      <c r="C26" t="s">
+        <v>174</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1605</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3">
-        <v>2458</v>
+        <v>12800</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
@@ -2193,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1012501</v>
       </c>
@@ -2201,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D27">
         <v>104</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1465</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
-        <v>2765</v>
+        <v>17280</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -2222,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2234,30 +2159,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1012601</v>
+        <v>1000002</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>187</v>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>1325</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3">
-        <v>3072</v>
+        <v>23110</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2275,33 +2200,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1012701</v>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>1000003</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>188</v>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>1185</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>3686</v>
+        <v>23333</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2316,33 +2241,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1012801</v>
+        <v>2000101</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1045</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3686</v>
+        <v>72</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2356,34 +2281,35 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1012901</v>
+        <v>2000102</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>905</v>
-      </c>
-      <c r="G31" s="3">
-        <v>4301</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2397,34 +2323,35 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1013001</v>
+        <v>2000103</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>765</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4608</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2438,34 +2365,35 @@
       <c r="M32">
         <v>0</v>
       </c>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1013101</v>
+        <v>2000104</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>625</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5530</v>
+        <v>72</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2479,34 +2407,35 @@
       <c r="M33">
         <v>0</v>
       </c>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1013201</v>
+        <v>2000105</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>221</v>
-      </c>
-      <c r="G34" s="3">
-        <v>6144</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2520,34 +2449,35 @@
       <c r="M34">
         <v>0</v>
       </c>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1013301</v>
+        <v>2000106</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35" s="3">
-        <v>6451</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2561,34 +2491,35 @@
       <c r="M35">
         <v>0</v>
       </c>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1013401</v>
+        <v>2000107</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>195</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>148</v>
-      </c>
-      <c r="G36" s="3">
-        <v>9216</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2602,34 +2533,35 @@
       <c r="M36">
         <v>0</v>
       </c>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1013501</v>
+        <v>2000108</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D37">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>121</v>
-      </c>
-      <c r="G37" s="3">
-        <v>12288</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2643,34 +2575,35 @@
       <c r="M37">
         <v>0</v>
       </c>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1013601</v>
+        <v>2000109</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>99</v>
-      </c>
-      <c r="G38" s="3">
-        <v>15360</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2684,34 +2617,35 @@
       <c r="M38">
         <v>0</v>
       </c>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1013701</v>
+        <v>2000110</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>467</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>90</v>
-      </c>
-      <c r="G39" s="3">
-        <v>18432</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2725,37 +2659,38 @@
       <c r="M39">
         <v>0</v>
       </c>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1013801</v>
+        <v>2000111</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>626</v>
+        <v>80</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3">
-        <v>23040</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2766,34 +2701,35 @@
       <c r="M40">
         <v>0</v>
       </c>
+      <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1000002</v>
+        <v>2000112</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3">
-        <v>27732</v>
+        <v>72</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2807,31 +2743,32 @@
       <c r="M41">
         <v>0</v>
       </c>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>1000003</v>
+        <v>2000113</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>23333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2848,19 +2785,20 @@
       <c r="M42">
         <v>0</v>
       </c>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2000101</v>
+        <v>2000114</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>68</v>
+      <c r="C43" t="s">
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2871,8 +2809,8 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>69</v>
+      <c r="H43" t="s">
+        <v>82</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2893,16 +2831,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2000102</v>
+        <v>2000115</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D44">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2911,10 +2849,10 @@
         <v>72</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2931,20 +2869,19 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2000103</v>
+        <v>2000116</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2953,10 +2890,10 @@
         <v>72</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2973,20 +2910,19 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>2000104</v>
+        <v>2000117</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>74</v>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2995,10 +2931,10 @@
         <v>72</v>
       </c>
       <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3015,20 +2951,19 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2000105</v>
+        <v>2000118</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3037,10 +2972,10 @@
         <v>72</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3057,20 +2992,19 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2000106</v>
+        <v>2000119</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3079,10 +3013,10 @@
         <v>72</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3099,20 +3033,19 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>2000107</v>
+        <v>2000120</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3121,10 +3054,10 @@
         <v>72</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3141,574 +3074,33 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>2000108</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50">
-        <v>56</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>72</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>2000109</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51">
-        <v>75</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>72</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>2000110</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52">
-        <v>99</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>72</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>2000111</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53">
-        <v>80</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>72</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>89</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>2000112</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54">
-        <v>30</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>72</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>2000113</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55">
-        <v>21</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>72</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>93</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>2000114</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56">
-        <v>15</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>72</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>2000115</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57">
-        <v>35</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>72</v>
-      </c>
-      <c r="G57">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2000116</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58">
-        <v>28</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>72</v>
-      </c>
-      <c r="G58">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2000117</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>72</v>
-      </c>
-      <c r="G59">
-        <v>90</v>
-      </c>
-      <c r="H59" t="s">
-        <v>101</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>2000118</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>72</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2000119</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61">
-        <v>13</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>72</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2000120</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>72</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M84" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3724,7 +3116,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -3732,39 +3124,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -3806,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3817,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3832,7 +3224,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3843,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -3858,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3869,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -3884,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3895,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -3910,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3921,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3936,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3947,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -3962,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3973,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -3988,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3999,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -4014,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -4025,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -4040,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -4051,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -4066,7 +3458,7 @@
         <v>666</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4077,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>52</v>
@@ -4092,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -4103,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -4118,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -4129,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -4144,7 +3536,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -4155,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -4170,7 +3562,7 @@
         <v>666</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -4181,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -4196,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4207,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -4222,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -4233,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4248,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4259,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -4274,7 +3666,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -4285,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -4300,7 +3692,7 @@
         <v>666</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -4311,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -4326,7 +3718,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4337,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -4352,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -4363,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -4378,10 +3770,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -4392,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -4407,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/BoomFish001.xlsx
+++ b/配置表/BoomFish001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CCC02-7A43-4DD0-8D8B-F2734EF72FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D4DBA-2968-488F-BED3-2300A4A89EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="命名规则" sheetId="2" r:id="rId2"/>
     <sheet name="杂物存档" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -181,12 +193,6 @@
   </si>
   <si>
     <t>Fish/fish1000002</t>
-  </si>
-  <si>
-    <t>海洋的馈赠</t>
-  </si>
-  <si>
-    <t>Fish/fish1000003</t>
   </si>
   <si>
     <t>郎朗山</t>
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F24" sqref="F24:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1183,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -1224,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1306,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1388,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -1429,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -1470,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>38</v>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>42</v>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14">
         <v>44</v>
@@ -1634,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15">
         <v>47</v>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18">
         <v>62</v>
@@ -1798,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>64</v>
@@ -1839,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21">
         <v>75</v>
@@ -1921,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23">
         <v>77</v>
@@ -2003,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24">
         <v>80</v>
@@ -2012,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>391</v>
+        <v>782</v>
       </c>
       <c r="G24" s="3">
         <v>5248</v>
@@ -2044,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D25">
         <v>90</v>
@@ -2053,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="G25" s="3">
         <v>8960</v>
@@ -2085,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -2094,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G26" s="3">
         <v>12800</v>
@@ -2126,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27">
         <v>104</v>
@@ -2135,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3">
         <v>17280</v>
@@ -2201,26 +2207,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>1000003</v>
+      <c r="A29">
+        <v>2000101</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>23333</v>
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>54</v>
@@ -2240,10 +2246,11 @@
       <c r="M29">
         <v>0</v>
       </c>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>2000101</v>
+        <v>2000102</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2252,7 +2259,7 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2263,7 +2270,7 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30">
@@ -2285,7 +2292,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>2000102</v>
+        <v>2000103</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2294,7 +2301,7 @@
         <v>57</v>
       </c>
       <c r="D31">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2327,16 +2334,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>2000103</v>
+        <v>2000104</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2347,7 +2354,7 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I32">
@@ -2369,16 +2376,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>2000104</v>
+        <v>2000105</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2389,7 +2396,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>62</v>
       </c>
       <c r="I33">
@@ -2411,7 +2418,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>2000105</v>
+        <v>2000106</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2420,7 +2427,7 @@
         <v>63</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2453,7 +2460,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>2000106</v>
+        <v>2000107</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2462,7 +2469,7 @@
         <v>65</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2495,7 +2502,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>2000107</v>
+        <v>2000108</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2504,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2537,7 +2544,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>2000108</v>
+        <v>2000109</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2546,7 +2553,7 @@
         <v>69</v>
       </c>
       <c r="D37">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2579,16 +2586,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>2000109</v>
+        <v>2000110</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>71</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2621,16 +2628,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>2000110</v>
+        <v>2000111</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2663,16 +2670,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>2000111</v>
+        <v>2000112</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>75</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2683,7 +2690,7 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I40">
@@ -2705,7 +2712,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>2000112</v>
+        <v>2000113</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2714,7 +2721,7 @@
         <v>77</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2725,7 +2732,7 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
       <c r="I41">
@@ -2747,7 +2754,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>2000113</v>
+        <v>2000114</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2756,7 +2763,7 @@
         <v>79</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2789,16 +2796,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2000114</v>
+        <v>2000115</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2807,7 +2814,7 @@
         <v>72</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
         <v>82</v>
@@ -2827,11 +2834,10 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2000115</v>
+        <v>2000116</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2840,7 +2846,7 @@
         <v>83</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2849,7 +2855,7 @@
         <v>72</v>
       </c>
       <c r="G44">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
         <v>84</v>
@@ -2872,7 +2878,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2000116</v>
+        <v>2000117</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2881,7 +2887,7 @@
         <v>85</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2890,7 +2896,7 @@
         <v>72</v>
       </c>
       <c r="G45">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
         <v>86</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>2000117</v>
+        <v>2000118</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2922,7 +2928,7 @@
         <v>87</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2931,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="G46">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="H46" t="s">
         <v>88</v>
@@ -2954,7 +2960,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2000118</v>
+        <v>2000119</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2963,7 +2969,7 @@
         <v>89</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2972,7 +2978,7 @@
         <v>72</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
         <v>90</v>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2000119</v>
+        <v>2000120</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3004,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3013,7 +3019,7 @@
         <v>72</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
         <v>92</v>
@@ -3034,46 +3040,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>2000120</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>72</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
@@ -3083,19 +3051,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3116,7 +3081,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -3124,39 +3089,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -3198,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3209,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3224,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3235,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -3250,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3261,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -3276,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3287,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -3302,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3313,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3328,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3339,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -3354,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3365,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -3380,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3391,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -3406,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3417,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3432,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3443,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -3458,7 +3423,7 @@
         <v>666</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3469,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>52</v>
@@ -3484,7 +3449,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3495,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -3510,7 +3475,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3521,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3536,7 +3501,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3547,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3562,7 +3527,7 @@
         <v>666</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3573,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -3588,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3599,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -3614,7 +3579,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3625,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3640,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3651,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -3666,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3677,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -3692,7 +3657,7 @@
         <v>666</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3703,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -3718,7 +3683,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3729,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3744,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3755,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -3770,10 +3735,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3784,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3799,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
